--- a/outputs-HGR-r202-archive/g__Caecibacter.xlsx
+++ b/outputs-HGR-r202-archive/g__Caecibacter.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,23 +479,23 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13322.fa</t>
+          <t>even_MAG-GUT14159.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9945096950395619</v>
+        <v>0.9982478948961343</v>
       </c>
       <c r="C2" t="n">
-        <v>2.21982010744972e-14</v>
+        <v>2.219807659585646e-14</v>
       </c>
       <c r="D2" t="n">
-        <v>0.005490303305239069</v>
+        <v>0.001752078634915656</v>
       </c>
       <c r="E2" t="n">
-        <v>1.655176944259813e-09</v>
+        <v>2.64689277081808e-08</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9945096950395619</v>
+        <v>0.9982478948961343</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -505,134 +505,6 @@
       <c r="H2" t="inlineStr">
         <is>
           <t>s__Caecibacter hominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT14159.fa</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9982478948961343</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2.219807659585646e-14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.001752078634915656</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2.64689277081808e-08</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.9982478948961343</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>s__Caecibacter hominis</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>s__Caecibacter hominis</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT23746.fa</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.001941533628777323</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.3035733920293127</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.6934301597038528</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.00105491463805719</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.6934301597038528</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>s__Caecibacter sp003467125</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>s__Caecibacter sp003467125</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT30091.fa</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.001450553094390345</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2663976472150701</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.7310939864109087</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.001057813279630826</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.7310939864109087</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>s__Caecibacter sp003467125</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>s__Caecibacter sp003467125</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT54583.fa</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.001078728430152569</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1256198384265659</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.8723609127453453</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.0009405203979361321</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.8723609127453453</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>s__Caecibacter sp003467125</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>s__Caecibacter sp003467125</t>
         </is>
       </c>
     </row>
